--- a/downloads/funcao-procv-interativa.xlsx
+++ b/downloads/funcao-procv-interativa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -478,6 +478,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF053D4E"/>
+      <color rgb="FFF04E23"/>
+      <color rgb="FF097981"/>
       <color rgb="FFF4B183"/>
       <color rgb="FFFAF58E"/>
       <color rgb="FFF9FEE6"/>
@@ -1873,6 +1876,356 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>831273</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6D1CA0-B07A-4E33-8B24-98BA76C89877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4234296" y="8658"/>
+          <a:ext cx="6883977" cy="484909"/>
+          <a:chOff x="4234296" y="8658"/>
+          <a:chExt cx="6883977" cy="484909"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Retângulo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB30A53-C97B-4D6B-8622-70574F0AA481}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4234296" y="8658"/>
+            <a:ext cx="6883977" cy="484909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="053D4E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="txt_CabeçalhoDoTour" descr="PROCV">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74A5AF6-D2AB-4A4D-BABA-161F4A030E94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4352294" y="34635"/>
+            <a:ext cx="1795662" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-br" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Função PROCV</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50422850-155A-44C6-AE93-2CC0D1209726}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6554930" y="121228"/>
+            <a:ext cx="1887682" cy="268432"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F04E23"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100"/>
+              <a:t>Clique aqui para ler o tutorial</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Imagem 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DCF283-403E-4307-9DAC-A01330C4553B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9118023" y="103909"/>
+            <a:ext cx="1809750" cy="308211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2551,7 +2904,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR" sz="1100" b="0" kern="0" baseline="0">
+              <a:rPr lang="pt-BR" sz="1100" b="1" kern="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg2">
                     <a:lumMod val="25000"/>
@@ -2561,7 +2914,20 @@
                 <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Clique aqui e aprenda como corrigir o erro #N/D</a:t>
+              <a:t>Clique aqui </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="0" kern="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>e aprenda como corrigir o erro #N/D</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
@@ -2971,6 +3337,356 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>422410</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42539</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87339</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Agrupar 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B804D1B1-D8B6-41EC-9942-351FBDF0C27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3801714" y="16560"/>
+          <a:ext cx="6883977" cy="484909"/>
+          <a:chOff x="4234296" y="8658"/>
+          <a:chExt cx="6883977" cy="484909"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Retângulo 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E15B55-9534-4B33-A83B-E6F633B27ADB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4234296" y="8658"/>
+            <a:ext cx="6883977" cy="484909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="053D4E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="txt_CabeçalhoDoTour" descr="PROCV">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04C57AD-99F1-4925-8CE3-AF5D7165EF7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4352294" y="34635"/>
+            <a:ext cx="1795662" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-br" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Função PROCV</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Retângulo: Cantos Arredondados 21">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616AA247-2A38-4D86-9142-00A7AD00BA74}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6554930" y="121228"/>
+            <a:ext cx="1887682" cy="268432"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F04E23"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100"/>
+              <a:t>Clique aqui para ler o tutorial</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Imagem 22">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B08490D-C0C6-4CC4-AFD3-8033B55C0BB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9118023" y="103909"/>
+            <a:ext cx="1809750" cy="308211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2978,16 +3694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>894015</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>116974</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114801</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150393</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22894</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3002,7 +3718,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3024607" y="100263"/>
+          <a:off x="0" y="2205790"/>
           <a:ext cx="3191709" cy="1343025"/>
           <a:chOff x="8448675" y="2143125"/>
           <a:chExt cx="2540331" cy="1334830"/>
@@ -3296,9 +4012,21 @@
                 <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>. Clique aqui para saber mais</a:t>
+              <a:t>. </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="0">
+            <a:r>
+              <a:rPr lang="pt-br" sz="1000" b="1" kern="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Clique aqui para saber mais</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="25000"/>
@@ -3359,16 +4087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>73802</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506098</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295060</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156560</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164855</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3382,9 +4110,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3187688" y="993793"/>
-          <a:ext cx="418684" cy="563824"/>
+        <a:xfrm rot="9549722" flipV="1">
+          <a:off x="2636690" y="2021769"/>
+          <a:ext cx="569481" cy="526055"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst>
@@ -3425,6 +4153,356 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626647</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525624</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>117281</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA7C076-D5FD-4186-BC46-350E8425814A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4010529" y="41780"/>
+          <a:ext cx="6883977" cy="484909"/>
+          <a:chOff x="4234296" y="8658"/>
+          <a:chExt cx="6883977" cy="484909"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Retângulo 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1DB7B3-898C-4BD0-ADCB-4EF54FD68CED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4234296" y="8658"/>
+            <a:ext cx="6883977" cy="484909"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="053D4E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="txt_CabeçalhoDoTour" descr="PROCV">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01FC1D6-EC8E-44F8-BCDD-BBAB3C641F92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4352294" y="34635"/>
+            <a:ext cx="1795662" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-br" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Função PROCV</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Retângulo: Cantos Arredondados 9">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93CCC2C-93D4-49FB-BD4F-7E752B371B80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6554930" y="121228"/>
+            <a:ext cx="1887682" cy="268432"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="F04E23"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100"/>
+              <a:t>Clique aqui para ler o tutorial</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Imagem 10">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897D0A36-A702-4DBC-9DE2-BDD1A67FC44C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9118023" y="103909"/>
+            <a:ext cx="1809750" cy="308211"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3754,7 +4832,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +4988,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
